--- a/jobsPics.xlsx
+++ b/jobsPics.xlsx
@@ -20,37 +20,37 @@
     <t>job</t>
   </si>
   <si>
-    <t>business_reporter.jpg</t>
+    <t>jobphotos/business_reporter.jpg</t>
   </si>
   <si>
     <t>Business Reporter</t>
   </si>
   <si>
-    <t>restaurant_critic.jpg</t>
+    <t>jobphotos/restaurant_critic.jpg</t>
   </si>
   <si>
     <t>Restaurant Critic</t>
   </si>
   <si>
-    <t>matchmaker.jpg</t>
+    <t>jobphotos/matchmaker.jpg</t>
   </si>
   <si>
     <t>Matchmaker</t>
   </si>
   <si>
-    <t>weddingplanner.jpg</t>
+    <t>jobphotos/weddingplanner.jpg</t>
   </si>
   <si>
     <t>Wedding Planner</t>
   </si>
   <si>
-    <t>acem.jpg</t>
+    <t>jobphotos/acem.jpg</t>
   </si>
   <si>
     <t>Airport Customer Experience Manager</t>
   </si>
   <si>
-    <t>gscem.jpg</t>
+    <t>jobphotos/gscem.jpg</t>
   </si>
   <si>
     <r>
@@ -72,13 +72,13 @@
     </r>
   </si>
   <si>
-    <t>dean.jpg</t>
+    <t>jobphotos/dean.jpg</t>
   </si>
   <si>
     <t>Dean of Academic Studies</t>
   </si>
   <si>
-    <t>couples.jpeg</t>
+    <t>jobphotos/couples.jpeg</t>
   </si>
   <si>
     <r>
@@ -1418,7 +1418,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="32.25" customHeight="1">
+    <row r="2" ht="44.25" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>2</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" ht="32.05" customHeight="1">
+    <row r="3" ht="44.05" customHeight="1">
       <c r="A3" t="s" s="7">
         <v>4</v>
       </c>
@@ -1444,7 +1444,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
+    <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="7">
         <v>6</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" ht="32.05" customHeight="1">
+    <row r="5" ht="44.05" customHeight="1">
       <c r="A5" t="s" s="7">
         <v>8</v>
       </c>
